--- a/lumpy_v_g_d.xlsx
+++ b/lumpy_v_g_d.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="-20" windowWidth="23800" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="homo.20130529" sheetId="3" r:id="rId1"/>
     <sheet name="homo.analysis" sheetId="4" r:id="rId2"/>
     <sheet name="hetero.20130529" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">hetero.20130529!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -51,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +93,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,8 +117,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -135,7 +164,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -145,6 +174,16 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -154,6 +193,16 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1211,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L32:L36"/>
     </sheetView>
   </sheetViews>
@@ -2087,7 +2136,7 @@
         <v>9.5882352941176467</v>
       </c>
       <c r="K22">
-        <f>D1/(C1+D1)</f>
+        <f t="shared" ref="K22:K41" si="0">D1/(C1+D1)</f>
         <v>0</v>
       </c>
       <c r="L22">
@@ -2095,41 +2144,41 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <f>J1/(J1+I1)</f>
+        <f t="shared" ref="M22:M31" si="1">J1/(J1+I1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:C41" si="0">A2</f>
+        <f t="shared" ref="A23:B41" si="2">A2</f>
         <v>del</v>
       </c>
       <c r="B23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C41" si="3">IF(A23="inr",C2/2000,C2/1000)</f>
+        <v>0.874</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D41" si="4">IF(A23="inr",G2/2000,G2/1000)</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E41" si="5">IF(A23="inr",I2/2000,I2/1000)</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G41" si="6">C23/D23</f>
+        <v>2.4829545454545454</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H41" si="7">C23/E23</f>
+        <v>2.2760416666666665</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C41" si="1">IF(A23="inr",C2/2000,C2/1000)</f>
-        <v>0.874</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D41" si="2">IF(A23="inr",G2/2000,G2/1000)</f>
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23:E41" si="3">IF(A23="inr",I2/2000,I2/1000)</f>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G41" si="4">C23/D23</f>
-        <v>2.4829545454545454</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H41" si="5">C23/E23</f>
-        <v>2.2760416666666665</v>
-      </c>
-      <c r="K23">
-        <f>D2/(C2+D2)</f>
         <v>2.2831050228310501E-3</v>
       </c>
       <c r="L23">
@@ -2137,41 +2186,41 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <f>J2/(J2+I2)</f>
+        <f t="shared" si="1"/>
         <v>5.1813471502590676E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="str">
+        <f t="shared" si="2"/>
+        <v>del</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>0.79</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>1.5141065830721003</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>1.2227848101265821</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>del</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>0.79</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>1.5141065830721003</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
-        <v>1.2227848101265821</v>
-      </c>
-      <c r="K24">
-        <f>D3/(C3+D3)</f>
         <v>9.2307692307692316E-3</v>
       </c>
       <c r="L24">
@@ -2179,41 +2228,41 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f>J3/(J3+I3)</f>
+        <f t="shared" si="1"/>
         <v>6.2893081761006293E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="str">
+        <f t="shared" si="2"/>
+        <v>del</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>1.4634873323397912</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>1.0779363336992316</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
-        <v>del</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>1.4634873323397912</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="5"/>
-        <v>1.0779363336992316</v>
-      </c>
-      <c r="K25">
-        <f>D4/(C4+D4)</f>
         <v>3.8197845249755141E-2</v>
       </c>
       <c r="L25">
@@ -2221,41 +2270,41 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <f>J4/(J4+I4)</f>
+        <f t="shared" si="1"/>
         <v>1.7259978425026967E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="str">
+        <f t="shared" si="2"/>
+        <v>del</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.995</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>1.476261127596439</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>1.0495780590717301</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>del</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>0.995</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>1.476261127596439</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
-        <v>1.0495780590717301</v>
-      </c>
-      <c r="K26">
-        <f>D5/(C5+D5)</f>
         <v>9.4631483166515012E-2</v>
       </c>
       <c r="L26">
@@ -2263,29 +2312,29 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f>J5/(J5+I5)</f>
+        <f t="shared" si="1"/>
         <v>4.5317220543806644E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>dup</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F27" s="2"/>
@@ -2293,42 +2342,42 @@
         <v>5</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.380952380952381</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
-        <f>D6/(C6+D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M27" s="2">
-        <f>J6/(J6+I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>dup</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77600000000000002</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="F28" s="2"/>
@@ -2336,42 +2385,42 @@
         <v>5</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6758620689655177</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
-        <f>D7/(C7+D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M28" s="2">
-        <f>J7/(J7+I7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>dup</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.90300000000000002</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.71199999999999997</v>
       </c>
       <c r="F29" s="2"/>
@@ -2379,42 +2428,42 @@
         <v>5</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2682584269662922</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
-        <f>D8/(C8+D8)</f>
+        <f t="shared" si="0"/>
         <v>6.6006600660066007E-3</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="2">
-        <f>J8/(J8+I8)</f>
+        <f t="shared" si="1"/>
         <v>1.4025245441795231E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>dup</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93200000000000005</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82299999999999995</v>
       </c>
       <c r="F30" s="2"/>
@@ -2422,42 +2471,42 @@
         <v>5</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1324422843256381</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
-        <f>D9/(C9+D9)</f>
+        <f t="shared" si="0"/>
         <v>1.4799154334038054E-2</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M30" s="2">
-        <f>J9/(J9+I9)</f>
+        <f t="shared" si="1"/>
         <v>8.4337349397590362E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>dup</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86399999999999999</v>
       </c>
       <c r="F31" s="2"/>
@@ -2465,266 +2514,266 @@
         <v>5</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.087962962962963</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
-        <f>D10/(C10+D10)</f>
+        <f t="shared" si="0"/>
         <v>6.1876247504990017E-2</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M31" s="2">
-        <f>J10/(J10+I10)</f>
+        <f t="shared" si="1"/>
         <v>2.2624434389140271E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inr</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.27250000000000002</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.337209302325582</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
       </c>
       <c r="K32">
-        <f>D11/(C11+D11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <f>H11/(H11+G11)</f>
+        <f t="shared" ref="L32:L41" si="8">H11/(H11+G11)</f>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" ref="M32:M36" si="6">J11/(J11+I11)</f>
+        <f t="shared" ref="M32:M36" si="9">J11/(J11+I11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inr</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32600000000000001</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.576687116564417</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
       </c>
       <c r="K33">
-        <f>D12/(C12+D12)</f>
+        <f t="shared" si="0"/>
         <v>5.3285968028419185E-3</v>
       </c>
       <c r="L33" s="3">
-        <f>H12/(H12+G12)</f>
+        <f t="shared" si="8"/>
         <v>5.7803468208092484E-2</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inr</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.96650000000000003</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.59450000000000003</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6257359125315392</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
       </c>
       <c r="K34">
-        <f>D13/(C13+D13)</f>
+        <f t="shared" si="0"/>
         <v>1.2768130745658836E-2</v>
       </c>
       <c r="L34" s="3">
-        <f>H13/(H13+G13)</f>
+        <f t="shared" si="8"/>
         <v>0.12637766348273327</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inr</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98799999999999999</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63649999999999995</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5522388059701493</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
       </c>
       <c r="K35">
-        <f>D14/(C14+D14)</f>
+        <f t="shared" si="0"/>
         <v>4.2635658914728682E-2</v>
       </c>
       <c r="L35" s="3">
-        <f>H14/(H14+G14)</f>
+        <f t="shared" si="8"/>
         <v>0.25815850815850816</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inr</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99399999999999999</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.67749999999999999</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.467158671586716</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="K36">
-        <f>D15/(C15+D15)</f>
+        <f t="shared" si="0"/>
         <v>7.792207792207792E-2</v>
       </c>
       <c r="L36" s="3">
-        <f>H15/(H15+G15)</f>
+        <f t="shared" si="8"/>
         <v>0.4043956043956044</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.22727272727272727</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inv</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.76800000000000002</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34100000000000003</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2521994134897358</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
-        <f>D16/(C16+D16)</f>
+        <f t="shared" si="0"/>
         <v>1.3003901170351106E-3</v>
       </c>
       <c r="L37" s="2">
-        <f>H16/(H16+G16)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M37" s="2">
@@ -2734,42 +2783,42 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inv</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.96399999999999997</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.82699999999999996</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13800000000000001</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.165659008464329</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9855072463768106</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
-        <f>D17/(C17+D17)</f>
+        <f t="shared" si="0"/>
         <v>4.1322314049586778E-3</v>
       </c>
       <c r="L38" s="2">
-        <f>H17/(H17+G17)</f>
+        <f t="shared" si="8"/>
         <v>1.2077294685990338E-3</v>
       </c>
       <c r="M38" s="2">
@@ -2779,42 +2828,42 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inv</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98499999999999999</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91700000000000004</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53800000000000003</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0741548527808069</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8308550185873604</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2">
-        <f>D18/(C18+D18)</f>
+        <f t="shared" si="0"/>
         <v>1.5984015984015984E-2</v>
       </c>
       <c r="L39" s="2">
-        <f>H18/(H18+G18)</f>
+        <f t="shared" si="8"/>
         <v>2.176278563656148E-3</v>
       </c>
       <c r="M39" s="2">
@@ -2824,42 +2873,42 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inv</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99099999999999999</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.92700000000000005</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.876</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0690399137001079</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1312785388127853</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
-        <f>D19/(C19+D19)</f>
+        <f t="shared" si="0"/>
         <v>4.4358727097396335E-2</v>
       </c>
       <c r="L40" s="2">
-        <f>H19/(H19+G19)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M40" s="2">
@@ -2869,42 +2918,42 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>inv</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.998</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93400000000000005</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.95399999999999996</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0685224839400427</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0461215932914047</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
-        <f>D20/(C20+D20)</f>
+        <f t="shared" si="0"/>
         <v>0.11603188662533215</v>
       </c>
       <c r="L41" s="2">
-        <f>H20/(H20+G20)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M41" s="2">
@@ -2918,11 +2967,11 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:M42" si="7">MIN(L22:L41)</f>
+        <f t="shared" ref="L42:M42" si="10">MIN(L22:L41)</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2932,11 +2981,11 @@
         <v>0.11603188662533215</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:M43" si="8">MAX(L22:L41)</f>
+        <f t="shared" ref="L43:M43" si="11">MAX(L22:L41)</f>
         <v>0.4043956043956044</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.22727272727272727</v>
       </c>
     </row>
@@ -2959,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4565,11 +4614,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
